--- a/test/fixtures/files/upload_single_page/03_combo_update_samples_spreadsheet.xlsx
+++ b/test/fixtures/files/upload_single_page/03_combo_update_samples_spreadsheet.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">2f47acd0-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10011,"type":"Sample","title":"Source Name"},{"id":10012,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10011,"type":"Sample","title":"Source 1"},{"id":10012,"type":"Sample","title":"Source 2"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 1</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">2f561330-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10012,"type":"Sample","title":"Source Name"},{"id":10013,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10012,"type":"Sample","title":"Source 2"},{"id":10013,"type":"Sample","title":"Source 3"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 2</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">2f65f410-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10013,"type":"Sample","title":"Source Name"},{"id":10014,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10013,"type":"Sample","title":"Source 3"},{"id":10014,"type":"Sample","title":"Source 4"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 3</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">2f75bab0-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10014,"type":"Sample","title":"Source Name"},{"id":10015,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10014,"type":"Sample","title":"Source 4"},{"id":10015,"type":"Sample","title":"Source 5"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 4</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10011,"type":"Sample","title":"Source Name"},{"id":10013,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10011,"type":"Sample","title":"Source 1"},{"id":10013,"type":"Sample","title":"Source 3"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 5</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10012,"type":"Sample","title":"Source Name"},{"id":10015,"type":"Sample","title":"Source Name"}]</t>
+    <t xml:space="preserve">[{"id":10012,"type":"Sample","title":"Source 2"},{"id":10015,"type":"Sample","title":"Source 5"}]</t>
   </si>
   <si>
     <t xml:space="preserve">sample nr. 6</t>
@@ -249,7 +249,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,10 +271,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -378,7 +374,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -459,11 +455,11 @@
   </sheetPr>
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -586,11 +582,11 @@
       <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -622,71 +618,71 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
